--- a/code/results/experiment2/Experiment2-Table.xlsx
+++ b/code/results/experiment2/Experiment2-Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maarten\Desktop\Afstuderen\thesis_stock_prediction_repo\code\results\experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D0C6C-78E1-42EC-BA9C-94726C5B036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D32FF-33D2-4361-907A-4AB927FD3E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
     <sheet name="missingness90_2indexes" sheetId="2" r:id="rId3"/>
     <sheet name="missingness985_2indexes" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t>smape_mean</t>
   </si>
@@ -88,13 +99,19 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>5-imputations-combined</t>
-  </si>
-  <si>
     <t>Missingness 98.5%</t>
   </si>
   <si>
     <t>WITH SHIFTED  DATA AND DIFFERENT MISSINGNESS</t>
+  </si>
+  <si>
+    <t>smape mean</t>
+  </si>
+  <si>
+    <t>smape std</t>
+  </si>
+  <si>
+    <t>5 imputations combined</t>
   </si>
 </sst>
 </file>
@@ -523,7 +540,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="P8" sqref="P6:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +567,7 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -562,22 +579,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9">
         <v>1.375287880887806E-2</v>
@@ -731,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9">
         <v>8.1360776741145023E-3</v>
@@ -877,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>2.20673326255298E-2</v>
@@ -1020,7 +1037,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
